--- a/Diccionario de datos y tablas.xlsx
+++ b/Diccionario de datos y tablas.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Diccionario" sheetId="2" r:id="rId2"/>
+    <sheet name="Servicios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="164">
   <si>
     <t xml:space="preserve">Tabla </t>
   </si>
@@ -436,6 +436,78 @@
   </si>
   <si>
     <t>Fecha del comentario</t>
+  </si>
+  <si>
+    <t>Id del usuario que da el like</t>
+  </si>
+  <si>
+    <t>Tipo de elemento al que se le otorga un like.</t>
+  </si>
+  <si>
+    <t>Id identificador del elemento.</t>
+  </si>
+  <si>
+    <t>Id del proyecto al que pertenece el post</t>
+  </si>
+  <si>
+    <t>PostId</t>
+  </si>
+  <si>
+    <t>Id identificador del post generado.</t>
+  </si>
+  <si>
+    <t>Tipo de elemento relacionado con el post(autogenerado)</t>
+  </si>
+  <si>
+    <t>Identificador del elemento relacionado con el post(autogenerado)</t>
+  </si>
+  <si>
+    <t>Redaccion</t>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+  </si>
+  <si>
+    <t>Contenido del post ya sea autogenerado o redaccion del usuario que publica.</t>
+  </si>
+  <si>
+    <t>EventoId</t>
+  </si>
+  <si>
+    <t>Id del evento.</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Nombre del evento</t>
+  </si>
+  <si>
+    <t>Descripcion del evento</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>varchar(600)</t>
+  </si>
+  <si>
+    <t>Lugar del evento</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Fecha de terminación del evento.</t>
+  </si>
+  <si>
+    <t>Fecha inicio del evento</t>
   </si>
 </sst>
 </file>
@@ -488,9 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -508,8 +577,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +617,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -568,18 +651,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -604,19 +676,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:H57" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B2:H57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:H70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B2:H70">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="B3:H51">
     <sortCondition ref="B2:B51"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Tabla" dataDxfId="5"/>
-    <tableColumn id="2" name="Campo" dataDxfId="4"/>
-    <tableColumn id="3" name="TipoDato" dataDxfId="2"/>
+    <tableColumn id="1" name="Tabla" dataDxfId="6"/>
+    <tableColumn id="2" name="Campo" dataDxfId="5"/>
+    <tableColumn id="3" name="TipoDato" dataDxfId="4"/>
     <tableColumn id="4" name="PK" dataDxfId="3"/>
-    <tableColumn id="5" name="FK" dataDxfId="6"/>
+    <tableColumn id="5" name="FK" dataDxfId="2"/>
     <tableColumn id="6" name="Req" dataDxfId="1"/>
     <tableColumn id="7" name="Desc" dataDxfId="0"/>
   </tableColumns>
@@ -923,10 +995,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
@@ -1070,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H62"/>
+  <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B56"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1081,1114 +1153,1369 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="21">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="21">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="21">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="21">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="21">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="21">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="21">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="21">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="21">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="21">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="21">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="21">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="21">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="21">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="21">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="21">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="21">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="21">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="21">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="21">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="21">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="21">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="21">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="E30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="21">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="21">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="21">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="21">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="21">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="21">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="21">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="21">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="21">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="21">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="21">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="E41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="21">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="21">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="21">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="21">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="21">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="21">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="21">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="21">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="7" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="21">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="21">
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="21">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="21">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="7" t="s">
+      <c r="E53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="21">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="21">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9" t="s">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="21">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9" t="s">
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="21">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="H62" s="7"/>
+      <c r="B57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="21">
+      <c r="B58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="21">
+      <c r="B59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="21">
+      <c r="B60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="21">
+      <c r="B61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="21">
+      <c r="B62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="21">
+      <c r="B63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="21">
+      <c r="B64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="21">
+      <c r="B65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="21">
+      <c r="B66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="21">
+      <c r="B67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="21">
+      <c r="B68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="21">
+      <c r="B69" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="21">
+      <c r="B70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,7 +2529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
